--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H2">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I2">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J2">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.328871</v>
+        <v>2.359186333333333</v>
       </c>
       <c r="N2">
-        <v>6.986613</v>
+        <v>7.077559</v>
       </c>
       <c r="O2">
-        <v>0.2411747569970185</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="P2">
-        <v>0.2411747569970185</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="Q2">
-        <v>9.882851315923332</v>
+        <v>9.769752348237775</v>
       </c>
       <c r="R2">
-        <v>88.94566184330999</v>
+        <v>87.92777113413999</v>
       </c>
       <c r="S2">
-        <v>0.05955199135017164</v>
+        <v>0.06155337950536444</v>
       </c>
       <c r="T2">
-        <v>0.05955199135017165</v>
+        <v>0.06155337950536444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H3">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I3">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J3">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,27 +623,27 @@
         <v>21.982476</v>
       </c>
       <c r="O3">
-        <v>0.7588252430029816</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="P3">
-        <v>0.7588252430029816</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="Q3">
-        <v>31.09511602601333</v>
+        <v>30.34426792077333</v>
       </c>
       <c r="R3">
-        <v>279.85604423412</v>
+        <v>273.09841128696</v>
       </c>
       <c r="S3">
-        <v>0.1873726540467256</v>
+        <v>0.1911811244096397</v>
       </c>
       <c r="T3">
-        <v>0.1873726540467256</v>
+        <v>0.1911811244096397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.865491666666667</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H4">
-        <v>17.596475</v>
+        <v>12.42346</v>
       </c>
       <c r="I4">
-        <v>0.3412966552647516</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J4">
-        <v>0.3412966552647516</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.328871</v>
+        <v>0.01106233333333333</v>
       </c>
       <c r="N4">
-        <v>6.986613</v>
+        <v>0.033187</v>
       </c>
       <c r="O4">
-        <v>0.2411747569970185</v>
+        <v>0.001140712431232264</v>
       </c>
       <c r="P4">
-        <v>0.2411747569970185</v>
+        <v>0.001140712431232264</v>
       </c>
       <c r="Q4">
-        <v>13.65997344324167</v>
+        <v>0.04581081855777777</v>
       </c>
       <c r="R4">
-        <v>122.939760989175</v>
+        <v>0.41229736702</v>
       </c>
       <c r="S4">
-        <v>0.08231213789737166</v>
+        <v>0.0002886266304024494</v>
       </c>
       <c r="T4">
-        <v>0.08231213789737166</v>
+        <v>0.0002886266304024494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>17.596475</v>
       </c>
       <c r="I5">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J5">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.327491999999999</v>
+        <v>2.359186333333333</v>
       </c>
       <c r="N5">
-        <v>21.982476</v>
+        <v>7.077559</v>
       </c>
       <c r="O5">
-        <v>0.7588252430029816</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="P5">
-        <v>0.7588252430029816</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="Q5">
-        <v>42.97934326356667</v>
+        <v>13.83778777828056</v>
       </c>
       <c r="R5">
-        <v>386.8140893721</v>
+        <v>124.540090004525</v>
       </c>
       <c r="S5">
-        <v>0.25898451736738</v>
+        <v>0.08718364317441825</v>
       </c>
       <c r="T5">
-        <v>0.25898451736738</v>
+        <v>0.08718364317441823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9536773333333334</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H6">
-        <v>2.861032</v>
+        <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.05549183300663472</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J6">
-        <v>0.05549183300663472</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.328871</v>
+        <v>7.327491999999999</v>
       </c>
       <c r="N6">
-        <v>6.986613</v>
+        <v>21.982476</v>
       </c>
       <c r="O6">
-        <v>0.2411747569970185</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="P6">
-        <v>0.2411747569970185</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="Q6">
-        <v>2.220991484957334</v>
+        <v>42.97934326356667</v>
       </c>
       <c r="R6">
-        <v>19.988923364616</v>
+        <v>386.8140893721</v>
       </c>
       <c r="S6">
-        <v>0.01338322934069426</v>
+        <v>0.2707871942394564</v>
       </c>
       <c r="T6">
-        <v>0.01338322934069426</v>
+        <v>0.2707871942394564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9536773333333334</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H7">
-        <v>2.861032</v>
+        <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.05549183300663472</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J7">
-        <v>0.05549183300663472</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.327491999999999</v>
+        <v>0.01106233333333333</v>
       </c>
       <c r="N7">
-        <v>21.982476</v>
+        <v>0.033187</v>
       </c>
       <c r="O7">
-        <v>0.7588252430029816</v>
+        <v>0.001140712431232264</v>
       </c>
       <c r="P7">
-        <v>0.7588252430029816</v>
+        <v>0.001140712431232264</v>
       </c>
       <c r="Q7">
-        <v>6.988063030581333</v>
+        <v>0.06488602398055557</v>
       </c>
       <c r="R7">
-        <v>62.892567275232</v>
+        <v>0.5839742158250001</v>
       </c>
       <c r="S7">
-        <v>0.04210860366594047</v>
+        <v>0.0004088081167574044</v>
       </c>
       <c r="T7">
-        <v>0.04210860366594047</v>
+        <v>0.0004088081167574043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.123111999999999</v>
+        <v>0.467591</v>
       </c>
       <c r="H8">
-        <v>18.369336</v>
+        <v>1.402773</v>
       </c>
       <c r="I8">
-        <v>0.3562868663317164</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J8">
-        <v>0.3562868663317164</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.328871</v>
+        <v>2.359186333333333</v>
       </c>
       <c r="N8">
-        <v>6.986613</v>
+        <v>7.077559</v>
       </c>
       <c r="O8">
-        <v>0.2411747569970185</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="P8">
-        <v>0.2411747569970185</v>
+        <v>0.243271749000506</v>
       </c>
       <c r="Q8">
-        <v>14.259937966552</v>
+        <v>1.103134296789667</v>
       </c>
       <c r="R8">
-        <v>128.339441698968</v>
+        <v>9.928208671107001</v>
       </c>
       <c r="S8">
-        <v>0.0859273984087809</v>
+        <v>0.006950190915322995</v>
       </c>
       <c r="T8">
-        <v>0.08592739840878091</v>
+        <v>0.006950190915322993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.123111999999999</v>
+        <v>0.467591</v>
       </c>
       <c r="H9">
-        <v>18.369336</v>
+        <v>1.402773</v>
       </c>
       <c r="I9">
-        <v>0.3562868663317164</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J9">
-        <v>0.3562868663317164</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,270 @@
         <v>21.982476</v>
       </c>
       <c r="O9">
-        <v>0.7588252430029816</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="P9">
-        <v>0.7588252430029816</v>
+        <v>0.7555875385682617</v>
       </c>
       <c r="Q9">
-        <v>44.86705419510399</v>
+        <v>3.426269311772</v>
       </c>
       <c r="R9">
-        <v>403.8034877559359</v>
+        <v>30.836423805948</v>
       </c>
       <c r="S9">
-        <v>0.2703594679229355</v>
+        <v>0.02158687832789607</v>
       </c>
       <c r="T9">
-        <v>0.2703594679229355</v>
+        <v>0.02158687832789606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.467591</v>
+      </c>
+      <c r="H10">
+        <v>1.402773</v>
+      </c>
+      <c r="I10">
+        <v>0.02856965900840602</v>
+      </c>
+      <c r="J10">
+        <v>0.02856965900840601</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01106233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.033187</v>
+      </c>
+      <c r="O10">
+        <v>0.001140712431232264</v>
+      </c>
+      <c r="P10">
+        <v>0.001140712431232264</v>
+      </c>
+      <c r="Q10">
+        <v>0.005172647505666667</v>
+      </c>
+      <c r="R10">
+        <v>0.046553827551</v>
+      </c>
+      <c r="S10">
+        <v>3.25897651869556E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.258976518695559E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.892462666666667</v>
+      </c>
+      <c r="H11">
+        <v>17.677388</v>
+      </c>
+      <c r="I11">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="J11">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.359186333333333</v>
+      </c>
+      <c r="N11">
+        <v>7.077559</v>
+      </c>
+      <c r="O11">
+        <v>0.243271749000506</v>
+      </c>
+      <c r="P11">
+        <v>0.243271749000506</v>
+      </c>
+      <c r="Q11">
+        <v>13.90141739287689</v>
+      </c>
+      <c r="R11">
+        <v>125.112756535892</v>
+      </c>
+      <c r="S11">
+        <v>0.08758453540540038</v>
+      </c>
+      <c r="T11">
+        <v>0.08758453540540037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.892462666666667</v>
+      </c>
+      <c r="H12">
+        <v>17.677388</v>
+      </c>
+      <c r="I12">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="J12">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.327491999999999</v>
+      </c>
+      <c r="N12">
+        <v>21.982476</v>
+      </c>
+      <c r="O12">
+        <v>0.7555875385682617</v>
+      </c>
+      <c r="P12">
+        <v>0.7555875385682617</v>
+      </c>
+      <c r="Q12">
+        <v>43.17697305029866</v>
+      </c>
+      <c r="R12">
+        <v>388.592757452688</v>
+      </c>
+      <c r="S12">
+        <v>0.2720323415912695</v>
+      </c>
+      <c r="T12">
+        <v>0.2720323415912695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.892462666666667</v>
+      </c>
+      <c r="H13">
+        <v>17.677388</v>
+      </c>
+      <c r="I13">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="J13">
+        <v>0.3600275649155554</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01106233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.033187</v>
+      </c>
+      <c r="O13">
+        <v>0.001140712431232264</v>
+      </c>
+      <c r="P13">
+        <v>0.001140712431232264</v>
+      </c>
+      <c r="Q13">
+        <v>0.06518438617288889</v>
+      </c>
+      <c r="R13">
+        <v>0.5866594755560001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004106879188854552</v>
+      </c>
+      <c r="T13">
+        <v>0.0004106879188854551</v>
       </c>
     </row>
   </sheetData>
